--- a/Code/Results/Cases/Case_000/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_000/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,34 +412,43 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718552</v>
+        <v>24.44307359118703</v>
       </c>
       <c r="C2">
-        <v>19.79684940052529</v>
+        <v>18.84945595138857</v>
       </c>
       <c r="D2">
-        <v>9.442240316331045</v>
+        <v>10.02066305241342</v>
       </c>
       <c r="E2">
-        <v>30.67466357065957</v>
+        <v>29.10526702066032</v>
       </c>
       <c r="F2">
-        <v>63.54804827132386</v>
+        <v>63.03962927701867</v>
       </c>
       <c r="G2">
-        <v>2.01043986827302</v>
+        <v>2.074527469938674</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.089966362669333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.03726729202019</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -456,34 +465,43 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.2195804342074</v>
+        <v>22.75403469952847</v>
       </c>
       <c r="C3">
-        <v>18.26974872213651</v>
+        <v>17.53033396951041</v>
       </c>
       <c r="D3">
-        <v>8.914116238228251</v>
+        <v>9.477274155190909</v>
       </c>
       <c r="E3">
-        <v>28.22440394926879</v>
+        <v>27.02775996347113</v>
       </c>
       <c r="F3">
-        <v>59.22243557171291</v>
+        <v>59.07048019432813</v>
       </c>
       <c r="G3">
-        <v>2.02939534136715</v>
+        <v>2.084514762941191</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.71158383663331</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.666704839883586</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -500,34 +518,43 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93078980953413</v>
+        <v>21.65952378285829</v>
       </c>
       <c r="C4">
-        <v>17.30170589585188</v>
+        <v>16.68690558818452</v>
       </c>
       <c r="D4">
-        <v>8.588640760383983</v>
+        <v>9.126601439551054</v>
       </c>
       <c r="E4">
-        <v>26.679415849612</v>
+        <v>25.6882164312462</v>
       </c>
       <c r="F4">
-        <v>56.51277687824813</v>
+        <v>56.50830951348832</v>
       </c>
       <c r="G4">
-        <v>2.041032923589058</v>
+        <v>2.090765124095097</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.473648940128257</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.509508808433985</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -544,34 +571,43 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482672</v>
+        <v>21.19839618377682</v>
       </c>
       <c r="C5">
-        <v>16.89888094117251</v>
+        <v>16.35017261237938</v>
       </c>
       <c r="D5">
-        <v>8.455562333510052</v>
+        <v>8.962248306383062</v>
       </c>
       <c r="E5">
-        <v>26.03828905836545</v>
+        <v>25.12500677602146</v>
       </c>
       <c r="F5">
-        <v>55.39410197988818</v>
+        <v>55.35697436933143</v>
       </c>
       <c r="G5">
-        <v>2.045788770045568</v>
+        <v>2.093373239817403</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.374520949778999</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.613255113535379</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -588,34 +624,43 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782457</v>
+        <v>21.12034009970148</v>
       </c>
       <c r="C6">
-        <v>16.83147007907148</v>
+        <v>16.31276175098223</v>
       </c>
       <c r="D6">
-        <v>8.433434851819758</v>
+        <v>8.913715193426158</v>
       </c>
       <c r="E6">
-        <v>25.93109875840172</v>
+        <v>25.02928931015716</v>
       </c>
       <c r="F6">
-        <v>55.20745322129695</v>
+        <v>55.07122712887615</v>
       </c>
       <c r="G6">
-        <v>2.046579647295387</v>
+        <v>2.093843404499034</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.357148475066394</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.635588437125067</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -632,34 +677,43 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425722</v>
+        <v>21.6516954895953</v>
       </c>
       <c r="C7">
-        <v>17.29630786899277</v>
+        <v>16.73292013436334</v>
       </c>
       <c r="D7">
-        <v>8.586847963810614</v>
+        <v>9.067926423508753</v>
       </c>
       <c r="E7">
-        <v>26.67081769861642</v>
+        <v>25.67736305216664</v>
       </c>
       <c r="F7">
-        <v>56.49774957047104</v>
+        <v>56.24481937174097</v>
       </c>
       <c r="G7">
-        <v>2.041096991607547</v>
+        <v>2.090896024981909</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.470075046960227</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.524493452909093</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -676,34 +730,43 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55643791326116</v>
+        <v>23.87014306729904</v>
       </c>
       <c r="C8">
-        <v>19.27615912934608</v>
+        <v>18.4623524213842</v>
       </c>
       <c r="D8">
-        <v>9.260289089134433</v>
+        <v>9.765799130928421</v>
       </c>
       <c r="E8">
-        <v>29.83734108505741</v>
+        <v>28.39744764467377</v>
       </c>
       <c r="F8">
-        <v>62.06700749866994</v>
+        <v>61.3899550194178</v>
       </c>
       <c r="G8">
-        <v>2.016984953209744</v>
+        <v>2.078075537225454</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.957617360055818</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.908925381665323</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -720,34 +783,43 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41370968656154</v>
+        <v>27.77635781228667</v>
       </c>
       <c r="C9">
-        <v>22.95616959896672</v>
+        <v>21.51752086636735</v>
       </c>
       <c r="D9">
-        <v>10.58149212437356</v>
+        <v>11.09435833615965</v>
       </c>
       <c r="E9">
-        <v>35.80129715655013</v>
+        <v>33.24354161310299</v>
       </c>
       <c r="F9">
-        <v>72.63218803581502</v>
+        <v>70.89697344570382</v>
       </c>
       <c r="G9">
-        <v>1.968923078333865</v>
+        <v>2.053570185399019</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.877518438033511</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.818003966741804</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -764,34 +836,43 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283833</v>
+        <v>30.36896984993527</v>
       </c>
       <c r="C10">
-        <v>25.60710150872042</v>
+        <v>23.60291155827748</v>
       </c>
       <c r="D10">
-        <v>11.5744224058135</v>
+        <v>11.73454473692675</v>
       </c>
       <c r="E10">
-        <v>40.17484901729082</v>
+        <v>35.62103610224563</v>
       </c>
       <c r="F10">
-        <v>80.54051721636871</v>
+        <v>76.20990935265426</v>
       </c>
       <c r="G10">
-        <v>1.931726294618737</v>
+        <v>2.036709757866526</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.482358605421416</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.44962251987175</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -808,34 +889,43 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916188</v>
+        <v>31.36121202343191</v>
       </c>
       <c r="C11">
-        <v>26.82484214780176</v>
+        <v>24.30366210427845</v>
       </c>
       <c r="D11">
-        <v>12.03904925477304</v>
+        <v>9.970562816033532</v>
       </c>
       <c r="E11">
-        <v>42.21059482593152</v>
+        <v>29.02521488677463</v>
       </c>
       <c r="F11">
-        <v>84.18346965236219</v>
+        <v>69.78476296936745</v>
       </c>
       <c r="G11">
-        <v>1.913929765371221</v>
+        <v>2.035704077275116</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.790747882991448</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.510909130059678</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -852,34 +942,43 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343358</v>
+        <v>31.68585877720371</v>
       </c>
       <c r="C12">
-        <v>27.29052468993861</v>
+        <v>24.44128593523192</v>
       </c>
       <c r="D12">
-        <v>12.21789564228072</v>
+        <v>8.470649040072422</v>
       </c>
       <c r="E12">
-        <v>42.99415990142964</v>
+        <v>23.04266191066755</v>
       </c>
       <c r="F12">
-        <v>85.57443696644053</v>
+        <v>63.59460163662599</v>
       </c>
       <c r="G12">
-        <v>1.907007552749306</v>
+        <v>2.037548408334925</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.512775492836967</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.456295562001662</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -896,34 +995,43 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411576</v>
+        <v>31.5280390423459</v>
       </c>
       <c r="C13">
-        <v>27.18997185068523</v>
+        <v>24.22003956114173</v>
       </c>
       <c r="D13">
-        <v>12.17922750502239</v>
+        <v>7.009883965657147</v>
       </c>
       <c r="E13">
-        <v>42.82471849117044</v>
+        <v>17.05336036085729</v>
       </c>
       <c r="F13">
-        <v>85.27421405460503</v>
+        <v>56.73539812628143</v>
       </c>
       <c r="G13">
-        <v>1.908507665485184</v>
+        <v>2.041798004963605</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.450362237943906</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.30815585127128</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -940,34 +1048,43 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.50359968010169</v>
+        <v>31.20074615630608</v>
       </c>
       <c r="C14">
-        <v>26.86304268634447</v>
+        <v>23.91840789243279</v>
       </c>
       <c r="D14">
-        <v>12.05369738572318</v>
+        <v>6.025607134096452</v>
       </c>
       <c r="E14">
-        <v>42.27476186777437</v>
+        <v>12.91878041738652</v>
       </c>
       <c r="F14">
-        <v>84.29762506640695</v>
+        <v>51.49898527829709</v>
       </c>
       <c r="G14">
-        <v>1.913364344850146</v>
+        <v>2.045765259257021</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.201276089694265</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.166145455950954</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -984,34 +1101,43 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407782</v>
+        <v>31.01509405687258</v>
       </c>
       <c r="C15">
-        <v>26.66348472232207</v>
+        <v>23.77999269105126</v>
       </c>
       <c r="D15">
-        <v>11.97722265277079</v>
+        <v>5.778124340762576</v>
       </c>
       <c r="E15">
-        <v>41.93976813747321</v>
+        <v>11.90505057293857</v>
       </c>
       <c r="F15">
-        <v>83.70118603006374</v>
+        <v>49.9808449229135</v>
       </c>
       <c r="G15">
-        <v>1.916313299920919</v>
+        <v>2.047349627796549</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.371556264700975</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.109105430901219</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1028,34 +1154,43 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453301</v>
+        <v>29.98938299365468</v>
       </c>
       <c r="C16">
-        <v>25.52797788720414</v>
+        <v>23.00271204771248</v>
       </c>
       <c r="D16">
-        <v>11.54439831699559</v>
+        <v>5.728103560500619</v>
       </c>
       <c r="E16">
-        <v>40.04320168908148</v>
+        <v>11.57793924659222</v>
       </c>
       <c r="F16">
-        <v>80.30360017115534</v>
+        <v>48.56665406277678</v>
       </c>
       <c r="G16">
-        <v>1.932867294210585</v>
+        <v>2.053498711515346</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.055752869198248</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.877767251533625</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1072,34 +1207,43 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570703</v>
+        <v>29.36448092993908</v>
       </c>
       <c r="C17">
-        <v>24.8361350709005</v>
+        <v>22.55793443121979</v>
       </c>
       <c r="D17">
-        <v>11.28281053043262</v>
+        <v>6.195135407049964</v>
       </c>
       <c r="E17">
-        <v>38.89516505701491</v>
+        <v>13.59355848671579</v>
       </c>
       <c r="F17">
-        <v>78.23133573472913</v>
+        <v>50.37157133274852</v>
       </c>
       <c r="G17">
-        <v>1.942763750988329</v>
+        <v>2.056209579269996</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.353811635908252</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.772518732282648</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1116,34 +1260,43 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302601</v>
+        <v>29.03268281535568</v>
       </c>
       <c r="C18">
-        <v>24.43910093995105</v>
+        <v>22.33313476896602</v>
       </c>
       <c r="D18">
-        <v>11.13348911491295</v>
+        <v>7.282784649532916</v>
       </c>
       <c r="E18">
-        <v>38.23872953362995</v>
+        <v>18.16992540045151</v>
       </c>
       <c r="F18">
-        <v>77.04173180354539</v>
+        <v>55.37073380035486</v>
       </c>
       <c r="G18">
-        <v>1.948377868415464</v>
+        <v>2.055887887705954</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.33329372792685</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.773529732633278</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1160,34 +1313,43 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197619</v>
+        <v>28.97345199471054</v>
       </c>
       <c r="C19">
-        <v>24.30475469442354</v>
+        <v>22.40338835008879</v>
       </c>
       <c r="D19">
-        <v>11.0831011899563</v>
+        <v>8.790375362995146</v>
       </c>
       <c r="E19">
-        <v>38.01699054411646</v>
+        <v>24.53208797344995</v>
       </c>
       <c r="F19">
-        <v>76.63917250456595</v>
+        <v>62.18067718691736</v>
       </c>
       <c r="G19">
-        <v>1.950266731702557</v>
+        <v>2.052752511626033</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.411514987705849</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.879578676368525</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1204,34 +1366,43 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280251</v>
+        <v>29.69820850587216</v>
       </c>
       <c r="C20">
-        <v>24.90967278290244</v>
+        <v>23.17917654727965</v>
       </c>
       <c r="D20">
-        <v>11.31053303980031</v>
+        <v>11.41151704201478</v>
       </c>
       <c r="E20">
-        <v>39.0169369706662</v>
+        <v>34.95363493126898</v>
       </c>
       <c r="F20">
-        <v>78.45164968891373</v>
+        <v>74.17869503357343</v>
       </c>
       <c r="G20">
-        <v>1.941718685536918</v>
+        <v>2.041462083656033</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.314225926561261</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.278525854025563</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1248,34 +1419,43 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.62747179442948</v>
+        <v>31.63458094084676</v>
       </c>
       <c r="C21">
-        <v>26.95891802727058</v>
+        <v>24.75784781552007</v>
       </c>
       <c r="D21">
-        <v>12.09047941382329</v>
+        <v>12.27927442675902</v>
       </c>
       <c r="E21">
-        <v>42.43589318647886</v>
+        <v>38.09980501401532</v>
       </c>
       <c r="F21">
-        <v>84.58409143282374</v>
+        <v>79.78419766314985</v>
       </c>
       <c r="G21">
-        <v>1.911943352712942</v>
+        <v>2.027249542232148</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.857352354950041</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.805519619189848</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1292,34 +1472,43 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083126</v>
+        <v>32.85232260185705</v>
       </c>
       <c r="C22">
-        <v>28.32698059617303</v>
+        <v>25.70931632217559</v>
       </c>
       <c r="D22">
-        <v>12.61797675994069</v>
+        <v>12.7719579253651</v>
       </c>
       <c r="E22">
-        <v>44.74911616656801</v>
+        <v>39.65220401541588</v>
       </c>
       <c r="F22">
-        <v>88.66440359819461</v>
+        <v>83.0814014828921</v>
       </c>
       <c r="G22">
-        <v>1.891371730508888</v>
+        <v>2.01820887680587</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.187829086509606</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.140100061090946</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1336,34 +1525,43 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.4452367082963</v>
+        <v>32.20893271165752</v>
       </c>
       <c r="C23">
-        <v>27.59292849431204</v>
+        <v>25.16305894123734</v>
       </c>
       <c r="D23">
-        <v>12.33434832085116</v>
+        <v>12.56410863771154</v>
       </c>
       <c r="E23">
-        <v>43.50458967050601</v>
+        <v>38.83252030482985</v>
       </c>
       <c r="F23">
-        <v>86.47688851490052</v>
+        <v>81.55397815487053</v>
       </c>
       <c r="G23">
-        <v>1.902478127042033</v>
+        <v>2.022918405130995</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.014325094538996</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.9634795789691</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1380,34 +1578,43 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524119</v>
+        <v>29.68185813993921</v>
       </c>
       <c r="C24">
-        <v>24.87642435347647</v>
+        <v>23.11238178875509</v>
       </c>
       <c r="D24">
-        <v>11.29799643622042</v>
+        <v>11.66976099974394</v>
       </c>
       <c r="E24">
-        <v>38.9618731367764</v>
+        <v>35.63223609375837</v>
       </c>
       <c r="F24">
-        <v>78.35204073660901</v>
+        <v>75.24053863113326</v>
       </c>
       <c r="G24">
-        <v>1.942191390765368</v>
+        <v>2.040887039928443</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.351378196554261</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.293550467567778</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1424,34 +1631,43 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092007</v>
+        <v>26.76275660477803</v>
       </c>
       <c r="C25">
-        <v>21.9760943554472</v>
+        <v>20.79094544270757</v>
       </c>
       <c r="D25">
-        <v>10.22222143521092</v>
+        <v>10.6583198470437</v>
       </c>
       <c r="E25">
-        <v>34.20189188957365</v>
+        <v>31.97679880725832</v>
       </c>
       <c r="F25">
-        <v>69.7998356797699</v>
+        <v>68.04404505137302</v>
       </c>
       <c r="G25">
-        <v>1.982132171959331</v>
+        <v>2.06030840747815</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.628166126820007</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.571692568677723</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1466,6 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_000/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_000/res_line/loading_percent.xlsx
@@ -427,28 +427,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44307359118703</v>
+        <v>24.44307359118704</v>
       </c>
       <c r="C2">
-        <v>18.84945595138857</v>
+        <v>18.84945595138836</v>
       </c>
       <c r="D2">
-        <v>10.02066305241342</v>
+        <v>10.02066305241336</v>
       </c>
       <c r="E2">
-        <v>29.10526702066032</v>
+        <v>29.10526702065993</v>
       </c>
       <c r="F2">
-        <v>63.03962927701867</v>
+        <v>63.03962927701833</v>
       </c>
       <c r="G2">
-        <v>2.074527469938674</v>
+        <v>2.074527469938671</v>
       </c>
       <c r="H2">
-        <v>3.089966362669333</v>
+        <v>3.089966362669392</v>
       </c>
       <c r="I2">
-        <v>3.03726729202019</v>
+        <v>3.037267292020123</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.75403469952847</v>
+        <v>22.75403469952843</v>
       </c>
       <c r="C3">
-        <v>17.53033396951041</v>
+        <v>17.53033396951019</v>
       </c>
       <c r="D3">
-        <v>9.477274155190909</v>
+        <v>9.477274155190834</v>
       </c>
       <c r="E3">
-        <v>27.02775996347113</v>
+        <v>27.02775996347093</v>
       </c>
       <c r="F3">
-        <v>59.07048019432813</v>
+        <v>59.07048019432784</v>
       </c>
       <c r="G3">
-        <v>2.084514762941191</v>
+        <v>2.084514762941586</v>
       </c>
       <c r="H3">
-        <v>2.71158383663331</v>
+        <v>2.711583836633365</v>
       </c>
       <c r="I3">
-        <v>2.666704839883586</v>
+        <v>2.666704839883651</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -533,28 +533,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.65952378285829</v>
+        <v>21.65952378285824</v>
       </c>
       <c r="C4">
-        <v>16.68690558818452</v>
+        <v>16.68690558818472</v>
       </c>
       <c r="D4">
-        <v>9.126601439551054</v>
+        <v>9.126601439550928</v>
       </c>
       <c r="E4">
-        <v>25.6882164312462</v>
+        <v>25.68821643124625</v>
       </c>
       <c r="F4">
-        <v>56.50830951348832</v>
+        <v>56.50830951348823</v>
       </c>
       <c r="G4">
-        <v>2.090765124095097</v>
+        <v>2.090765124095499</v>
       </c>
       <c r="H4">
-        <v>2.473648940128257</v>
+        <v>2.473648940128331</v>
       </c>
       <c r="I4">
-        <v>2.509508808433985</v>
+        <v>2.509508808433992</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -586,28 +586,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19839618377682</v>
+        <v>21.19839618377675</v>
       </c>
       <c r="C5">
-        <v>16.35017261237938</v>
+        <v>16.35017261237931</v>
       </c>
       <c r="D5">
-        <v>8.962248306383062</v>
+        <v>8.962248306382884</v>
       </c>
       <c r="E5">
-        <v>25.12500677602146</v>
+        <v>25.1250067760214</v>
       </c>
       <c r="F5">
-        <v>55.35697436933143</v>
+        <v>55.35697436933109</v>
       </c>
       <c r="G5">
-        <v>2.093373239817403</v>
+        <v>2.093373239817404</v>
       </c>
       <c r="H5">
-        <v>2.374520949778999</v>
+        <v>2.374520949779008</v>
       </c>
       <c r="I5">
-        <v>2.613255113535379</v>
+        <v>2.613255113535315</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -642,25 +642,25 @@
         <v>21.12034009970148</v>
       </c>
       <c r="C6">
-        <v>16.31276175098223</v>
+        <v>16.31276175098225</v>
       </c>
       <c r="D6">
         <v>8.913715193426158</v>
       </c>
       <c r="E6">
-        <v>25.02928931015716</v>
+        <v>25.02928931015711</v>
       </c>
       <c r="F6">
-        <v>55.07122712887615</v>
+        <v>55.07122712887607</v>
       </c>
       <c r="G6">
-        <v>2.093843404499034</v>
+        <v>2.093843404499031</v>
       </c>
       <c r="H6">
-        <v>2.357148475066394</v>
+        <v>2.357148475066212</v>
       </c>
       <c r="I6">
-        <v>2.635588437125067</v>
+        <v>2.635588437125068</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -692,28 +692,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6516954895953</v>
+        <v>21.65169548959532</v>
       </c>
       <c r="C7">
-        <v>16.73292013436334</v>
+        <v>16.73292013436325</v>
       </c>
       <c r="D7">
-        <v>9.067926423508753</v>
+        <v>9.067926423508622</v>
       </c>
       <c r="E7">
-        <v>25.67736305216664</v>
+        <v>25.67736305216642</v>
       </c>
       <c r="F7">
-        <v>56.24481937174097</v>
+        <v>56.24481937174074</v>
       </c>
       <c r="G7">
-        <v>2.090896024981909</v>
+        <v>2.090896024981767</v>
       </c>
       <c r="H7">
-        <v>2.470075046960227</v>
+        <v>2.470075046960208</v>
       </c>
       <c r="I7">
-        <v>2.524493452909093</v>
+        <v>2.524493452909088</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -745,28 +745,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.87014306729904</v>
+        <v>23.870143067299</v>
       </c>
       <c r="C8">
-        <v>18.4623524213842</v>
+        <v>18.46235242138411</v>
       </c>
       <c r="D8">
-        <v>9.765799130928421</v>
+        <v>9.765799130928215</v>
       </c>
       <c r="E8">
-        <v>28.39744764467377</v>
+        <v>28.39744764467337</v>
       </c>
       <c r="F8">
-        <v>61.3899550194178</v>
+        <v>61.38995501941691</v>
       </c>
       <c r="G8">
-        <v>2.078075537225454</v>
+        <v>2.078075537225312</v>
       </c>
       <c r="H8">
-        <v>2.957617360055818</v>
+        <v>2.957617360055809</v>
       </c>
       <c r="I8">
-        <v>2.908925381665323</v>
+        <v>2.908925381665187</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77635781228667</v>
+        <v>27.77635781228673</v>
       </c>
       <c r="C9">
-        <v>21.51752086636735</v>
+        <v>21.51752086636726</v>
       </c>
       <c r="D9">
-        <v>11.09435833615965</v>
+        <v>11.09435833615976</v>
       </c>
       <c r="E9">
-        <v>33.24354161310299</v>
+        <v>33.24354161310295</v>
       </c>
       <c r="F9">
-        <v>70.89697344570382</v>
+        <v>70.89697344570428</v>
       </c>
       <c r="G9">
-        <v>2.053570185399019</v>
+        <v>2.053570185398751</v>
       </c>
       <c r="H9">
-        <v>3.877518438033511</v>
+        <v>3.877518438033591</v>
       </c>
       <c r="I9">
-        <v>3.818003966741804</v>
+        <v>3.818003966742009</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -851,28 +851,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36896984993527</v>
+        <v>30.36896984993525</v>
       </c>
       <c r="C10">
-        <v>23.60291155827748</v>
+        <v>23.60291155827736</v>
       </c>
       <c r="D10">
-        <v>11.73454473692675</v>
+        <v>11.73454473692673</v>
       </c>
       <c r="E10">
-        <v>35.62103610224563</v>
+        <v>35.62103610224544</v>
       </c>
       <c r="F10">
-        <v>76.20990935265426</v>
+        <v>76.20990935265392</v>
       </c>
       <c r="G10">
-        <v>2.036709757866526</v>
+        <v>2.036709757866656</v>
       </c>
       <c r="H10">
-        <v>4.482358605421416</v>
+        <v>4.482358605421413</v>
       </c>
       <c r="I10">
-        <v>4.44962251987175</v>
+        <v>4.449622519871673</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -904,25 +904,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.36121202343191</v>
+        <v>31.36121202343197</v>
       </c>
       <c r="C11">
-        <v>24.30366210427845</v>
+        <v>24.30366210427836</v>
       </c>
       <c r="D11">
-        <v>9.970562816033532</v>
+        <v>9.970562816033523</v>
       </c>
       <c r="E11">
-        <v>29.02521488677463</v>
+        <v>29.02521488677462</v>
       </c>
       <c r="F11">
-        <v>69.78476296936745</v>
+        <v>69.78476296936714</v>
       </c>
       <c r="G11">
-        <v>2.035704077275116</v>
+        <v>2.03570407727512</v>
       </c>
       <c r="H11">
-        <v>4.790747882991448</v>
+        <v>4.790747882991368</v>
       </c>
       <c r="I11">
         <v>4.510909130059678</v>
@@ -957,28 +957,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68585877720371</v>
+        <v>31.68585877720369</v>
       </c>
       <c r="C12">
-        <v>24.44128593523192</v>
+        <v>24.44128593523203</v>
       </c>
       <c r="D12">
-        <v>8.470649040072422</v>
+        <v>8.470649040072542</v>
       </c>
       <c r="E12">
-        <v>23.04266191066755</v>
+        <v>23.0426619106675</v>
       </c>
       <c r="F12">
-        <v>63.59460163662599</v>
+        <v>63.59460163662632</v>
       </c>
       <c r="G12">
-        <v>2.037548408334925</v>
+        <v>2.037548408334782</v>
       </c>
       <c r="H12">
-        <v>5.512775492836967</v>
+        <v>5.512775492837027</v>
       </c>
       <c r="I12">
-        <v>4.456295562001662</v>
+        <v>4.456295562001463</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1010,28 +1010,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.5280390423459</v>
+        <v>31.52803904234584</v>
       </c>
       <c r="C13">
-        <v>24.22003956114173</v>
+        <v>24.22003956114179</v>
       </c>
       <c r="D13">
-        <v>7.009883965657147</v>
+        <v>7.009883965657012</v>
       </c>
       <c r="E13">
-        <v>17.05336036085729</v>
+        <v>17.05336036085701</v>
       </c>
       <c r="F13">
-        <v>56.73539812628143</v>
+        <v>56.73539812628097</v>
       </c>
       <c r="G13">
-        <v>2.041798004963605</v>
+        <v>2.041798004963339</v>
       </c>
       <c r="H13">
-        <v>6.450362237943906</v>
+        <v>6.450362237943956</v>
       </c>
       <c r="I13">
-        <v>4.30815585127128</v>
+        <v>4.308155851271346</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1063,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.20074615630608</v>
+        <v>31.20074615630609</v>
       </c>
       <c r="C14">
-        <v>23.91840789243279</v>
+        <v>23.91840789243268</v>
       </c>
       <c r="D14">
-        <v>6.025607134096452</v>
+        <v>6.025607134096393</v>
       </c>
       <c r="E14">
-        <v>12.91878041738652</v>
+        <v>12.91878041738623</v>
       </c>
       <c r="F14">
-        <v>51.49898527829709</v>
+        <v>51.49898527829699</v>
       </c>
       <c r="G14">
-        <v>2.045765259257021</v>
+        <v>2.045765259257151</v>
       </c>
       <c r="H14">
-        <v>7.201276089694265</v>
+        <v>7.201276089694248</v>
       </c>
       <c r="I14">
-        <v>4.166145455950954</v>
+        <v>4.16614545595082</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1116,28 +1116,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.01509405687258</v>
+        <v>31.01509405687257</v>
       </c>
       <c r="C15">
-        <v>23.77999269105126</v>
+        <v>23.77999269105106</v>
       </c>
       <c r="D15">
-        <v>5.778124340762576</v>
+        <v>5.778124340762592</v>
       </c>
       <c r="E15">
-        <v>11.90505057293857</v>
+        <v>11.90505057293832</v>
       </c>
       <c r="F15">
-        <v>49.9808449229135</v>
+        <v>49.98084492291337</v>
       </c>
       <c r="G15">
-        <v>2.047349627796549</v>
+        <v>2.047349627796285</v>
       </c>
       <c r="H15">
-        <v>7.371556264700975</v>
+        <v>7.37155626470092</v>
       </c>
       <c r="I15">
-        <v>4.109105430901219</v>
+        <v>4.109105430901421</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1169,28 +1169,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.98938299365468</v>
+        <v>29.98938299365462</v>
       </c>
       <c r="C16">
-        <v>23.00271204771248</v>
+        <v>23.00271204771266</v>
       </c>
       <c r="D16">
-        <v>5.728103560500619</v>
+        <v>5.728103560500506</v>
       </c>
       <c r="E16">
-        <v>11.57793924659222</v>
+        <v>11.57793924659197</v>
       </c>
       <c r="F16">
-        <v>48.56665406277678</v>
+        <v>48.56665406277664</v>
       </c>
       <c r="G16">
-        <v>2.053498711515346</v>
+        <v>2.053498711515744</v>
       </c>
       <c r="H16">
-        <v>7.055752869198248</v>
+        <v>7.055752869198356</v>
       </c>
       <c r="I16">
-        <v>3.877767251533625</v>
+        <v>3.877767251533557</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1222,28 +1222,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.36448092993908</v>
+        <v>29.36448092993919</v>
       </c>
       <c r="C17">
-        <v>22.55793443121979</v>
+        <v>22.55793443121987</v>
       </c>
       <c r="D17">
-        <v>6.195135407049964</v>
+        <v>6.19513540705</v>
       </c>
       <c r="E17">
-        <v>13.59355848671579</v>
+        <v>13.59355848671587</v>
       </c>
       <c r="F17">
-        <v>50.37157133274852</v>
+        <v>50.37157133274903</v>
       </c>
       <c r="G17">
-        <v>2.056209579269996</v>
+        <v>2.056209579269872</v>
       </c>
       <c r="H17">
-        <v>6.353811635908252</v>
+        <v>6.353811635908204</v>
       </c>
       <c r="I17">
-        <v>3.772518732282648</v>
+        <v>3.772518732282649</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1275,28 +1275,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.03268281535568</v>
+        <v>29.0326828153557</v>
       </c>
       <c r="C18">
-        <v>22.33313476896602</v>
+        <v>22.33313476896589</v>
       </c>
       <c r="D18">
-        <v>7.282784649532916</v>
+        <v>7.282784649532969</v>
       </c>
       <c r="E18">
-        <v>18.16992540045151</v>
+        <v>18.16992540045136</v>
       </c>
       <c r="F18">
-        <v>55.37073380035486</v>
+        <v>55.3707338003543</v>
       </c>
       <c r="G18">
-        <v>2.055887887705954</v>
+        <v>2.055887887705688</v>
       </c>
       <c r="H18">
-        <v>5.33329372792685</v>
+        <v>5.333293727927019</v>
       </c>
       <c r="I18">
-        <v>3.773529732633278</v>
+        <v>3.773529732633144</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1331,25 +1331,25 @@
         <v>28.97345199471054</v>
       </c>
       <c r="C19">
-        <v>22.40338835008879</v>
+        <v>22.4033883500889</v>
       </c>
       <c r="D19">
-        <v>8.790375362995146</v>
+        <v>8.790375362995041</v>
       </c>
       <c r="E19">
-        <v>24.53208797344995</v>
+        <v>24.53208797344972</v>
       </c>
       <c r="F19">
-        <v>62.18067718691736</v>
+        <v>62.1806771869171</v>
       </c>
       <c r="G19">
-        <v>2.052752511626033</v>
+        <v>2.052752511625638</v>
       </c>
       <c r="H19">
-        <v>4.411514987705849</v>
+        <v>4.411514987705797</v>
       </c>
       <c r="I19">
-        <v>3.879578676368525</v>
+        <v>3.879578676368524</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1384,25 +1384,25 @@
         <v>29.69820850587216</v>
       </c>
       <c r="C20">
-        <v>23.17917654727965</v>
+        <v>23.17917654727976</v>
       </c>
       <c r="D20">
-        <v>11.41151704201478</v>
+        <v>11.41151704201456</v>
       </c>
       <c r="E20">
-        <v>34.95363493126898</v>
+        <v>34.95363493126855</v>
       </c>
       <c r="F20">
-        <v>74.17869503357343</v>
+        <v>74.17869503357267</v>
       </c>
       <c r="G20">
-        <v>2.041462083656033</v>
+        <v>2.041462083656163</v>
       </c>
       <c r="H20">
-        <v>4.314225926561261</v>
+        <v>4.314225926561374</v>
       </c>
       <c r="I20">
-        <v>4.278525854025563</v>
+        <v>4.278525854025554</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.63458094084676</v>
+        <v>31.63458094084674</v>
       </c>
       <c r="C21">
-        <v>24.75784781552007</v>
+        <v>24.75784781552005</v>
       </c>
       <c r="D21">
-        <v>12.27927442675902</v>
+        <v>12.27927442675885</v>
       </c>
       <c r="E21">
-        <v>38.09980501401532</v>
+        <v>38.09980501401512</v>
       </c>
       <c r="F21">
-        <v>79.78419766314985</v>
+        <v>79.78419766314934</v>
       </c>
       <c r="G21">
-        <v>2.027249542232148</v>
+        <v>2.027249542232134</v>
       </c>
       <c r="H21">
-        <v>4.857352354950041</v>
+        <v>4.857352354950227</v>
       </c>
       <c r="I21">
-        <v>4.805519619189848</v>
+        <v>4.805519619189777</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1487,28 +1487,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.85232260185705</v>
+        <v>32.85232260185697</v>
       </c>
       <c r="C22">
-        <v>25.70931632217559</v>
+        <v>25.7093163221756</v>
       </c>
       <c r="D22">
-        <v>12.7719579253651</v>
+        <v>12.77195792536501</v>
       </c>
       <c r="E22">
-        <v>39.65220401541588</v>
+        <v>39.65220401541557</v>
       </c>
       <c r="F22">
-        <v>83.0814014828921</v>
+        <v>83.08140148289172</v>
       </c>
       <c r="G22">
-        <v>2.01820887680587</v>
+        <v>2.018208876805866</v>
       </c>
       <c r="H22">
-        <v>5.187829086509606</v>
+        <v>5.187829086509634</v>
       </c>
       <c r="I22">
-        <v>5.140100061090946</v>
+        <v>5.140100061090803</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1540,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.20893271165752</v>
+        <v>32.20893271165753</v>
       </c>
       <c r="C23">
-        <v>25.16305894123734</v>
+        <v>25.16305894123705</v>
       </c>
       <c r="D23">
-        <v>12.56410863771154</v>
+        <v>12.56410863771151</v>
       </c>
       <c r="E23">
-        <v>38.83252030482985</v>
+        <v>38.83252030482961</v>
       </c>
       <c r="F23">
-        <v>81.55397815487053</v>
+        <v>81.55397815487034</v>
       </c>
       <c r="G23">
-        <v>2.022918405130995</v>
+        <v>2.022918405131028</v>
       </c>
       <c r="H23">
-        <v>5.014325094538996</v>
+        <v>5.014325094539056</v>
       </c>
       <c r="I23">
-        <v>4.9634795789691</v>
+        <v>4.96347957896903</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1593,28 +1593,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.68185813993921</v>
+        <v>29.68185813993916</v>
       </c>
       <c r="C24">
-        <v>23.11238178875509</v>
+        <v>23.11238178875517</v>
       </c>
       <c r="D24">
-        <v>11.66976099974394</v>
+        <v>11.66976099974378</v>
       </c>
       <c r="E24">
-        <v>35.63223609375837</v>
+        <v>35.63223609375809</v>
       </c>
       <c r="F24">
-        <v>75.24053863113326</v>
+        <v>75.24053863113274</v>
       </c>
       <c r="G24">
-        <v>2.040887039928443</v>
+        <v>2.04088703992831</v>
       </c>
       <c r="H24">
-        <v>4.351378196554261</v>
+        <v>4.351378196554124</v>
       </c>
       <c r="I24">
-        <v>4.293550467567778</v>
+        <v>4.293550467567776</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1646,28 +1646,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.76275660477803</v>
+        <v>26.76275660477796</v>
       </c>
       <c r="C25">
-        <v>20.79094544270757</v>
+        <v>20.79094544270774</v>
       </c>
       <c r="D25">
-        <v>10.6583198470437</v>
+        <v>10.65831984704363</v>
       </c>
       <c r="E25">
-        <v>31.97679880725832</v>
+        <v>31.97679880725834</v>
       </c>
       <c r="F25">
-        <v>68.04404505137302</v>
+        <v>68.04404505137312</v>
       </c>
       <c r="G25">
-        <v>2.06030840747815</v>
+        <v>2.060308407478158</v>
       </c>
       <c r="H25">
         <v>3.628166126820007</v>
       </c>
       <c r="I25">
-        <v>3.571692568677723</v>
+        <v>3.571692568677724</v>
       </c>
       <c r="J25">
         <v>0</v>
